--- a/Phrase_Sentiment/Dict/IPA Letters Excel.xlsx
+++ b/Phrase_Sentiment/Dict/IPA Letters Excel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaac/Documents/Programming/Phrase_Sentiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaac/Dropbox/Programming Files/Phrase_Sentiment/Dict/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="460" windowWidth="16460" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1738,7 +1738,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="\+##;\–##"/>
+    <numFmt numFmtId="164" formatCode="\+##;\–##"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1954,16 +1954,16 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2008,7 +2008,7 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2021,7 +2021,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2048,7 +2048,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="163">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -2128,1369 +2128,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFD83"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF7C79"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF90C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA1FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF78FFC7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2FF58"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF818DFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8A66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9CFFFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCB97FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF74FF82"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD268"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFD83"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF7C79"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF90C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA1FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF78FFC7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2FF58"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF818DFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8A66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9CFFFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCB97FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF74FF82"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD268"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFD83"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF7C79"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF90C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA1FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF78FFC7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2FF58"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF818DFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8A66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9CFFFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCB97FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF74FF82"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD268"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFD83"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF7C79"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF90C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA1FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF78FFC7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2FF58"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF818DFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8A66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9CFFFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCB97FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF74FF82"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD268"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFD83"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF7C79"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF90C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA1FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF78FFC7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF818DFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8A66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9CFFFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCB97FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF74FF82"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD268"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFD83"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF7C79"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF90C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA1FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF78FFC7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF818DFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFAFA7D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9CFFFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCB97FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF59CB5A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD268"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFD83"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF7C79"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF90C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA1FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF78FFC7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFAFA7D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9CFFFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCB97FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF59CB5A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD268"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFD83"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF7C79"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF90C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA1FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF78FFC7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9CFFFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCB97FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF59CB5A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD268"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFD83"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF7C79"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF90C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA1FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF78FFC7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCB97FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF59CB5A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD268"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFD83"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF7C79"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF90C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA1FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF78FFC7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF59CB5A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD268"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFD83"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF7C79"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF90C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA1FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF78FFC7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF59CB5A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD268"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFD83"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF7C79"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF90C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA1FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF78FFC7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF59CB5A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD268"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFD83"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF7C79"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF90C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA1FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF78FFC7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF59CB5A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD268"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFD83"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF7C79"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF90C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA1FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF78FFC7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD268"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFD83"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF7C79"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF90C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA1FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF78FFC7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFD83"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF7C79"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF90C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA1FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF78FFC7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF7C79"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF90C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA1FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF78FFC7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3825,7 +2462,7 @@
   <dimension ref="A1:O936"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16922,50 +15559,6 @@
       <c r="N936" s="36"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
-      <formula>12</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="colorScale" priority="14">
       <colorScale>
